--- a/testCases.xlsx
+++ b/testCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D885319\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9878CEA2-A441-4805-ACD8-658C201A9E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EAF05C-4084-4E6A-BE48-E5B2E35ECB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A90B3BD1-FD7B-42BE-8E59-B30604BE83C0}"/>
   </bookViews>
